--- a/data/financial_statements/socf/APH.xlsx
+++ b/data/financial_statements/socf/APH.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,2326 +587,2380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>511000000</v>
+      </c>
+      <c r="C2">
         <v>500500000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>476100000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>429200000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>457700000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>421700000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>368900000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>331800000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>360200000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>349400000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>260500000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>243200000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>320800000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>282400000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>290900000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>269900000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>341200000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>319600000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>287800000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>268300000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-100400000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>280200000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>253600000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>227300000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>238300000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>227100000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>208800000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>158400000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>202600000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>207300000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>180600000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>181800000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>194800000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>184200000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>176400000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>159800000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>168830000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>161389000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>154868000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>153613000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>108300000</v>
+      </c>
+      <c r="C3">
         <v>102600000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>90900000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>91100000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>121100000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>95200000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>102600000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>76700000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>90100000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>74400000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>71500000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>72100000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>76700000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>72000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>77800000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>85600000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>105200000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>72300000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>61700000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>60500000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>58300000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>57900000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>56500000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>54100000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>53400000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>51200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>50500000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>61900000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>43500000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>44600000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>43400000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>40100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>50100000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>40400000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>37700000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>39900000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>34969000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>34769000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>34170000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>32592000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3000000</v>
+      </c>
+      <c r="C4">
         <v>22700000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>26000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>33100000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-24600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>65700000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-4800000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>33300000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>56100000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8100000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8300000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>28800000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>69300000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-7500000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>13700000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>44700000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9800000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-23400000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>12500000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>199500000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6100000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>13800000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>16600000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-29000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>58200000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-17400000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-38500000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>25200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>48900000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>400000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-33600000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>33600000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>15600000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-36500000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-3600000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>31618000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>9057000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-13003000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-12572000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>-398400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-146300000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>117300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-237900000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-146500000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-165900000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-22300000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-111500000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-37100000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
         <v>-263000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1565000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-102000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1391000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1362000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1325000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-3400000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-173300000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-100400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-14200000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-5200000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-51600000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-8000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>131700000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>204300000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-60200000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>48800000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>140500000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>47800000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-17500000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>66800000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>6900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>66200000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1071000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>157900000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1076000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>928000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>817000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-30400000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5300000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3700000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1500000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>57800000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1900000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>100000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-79000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>18700000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-10300000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>9600000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>64400000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>36400000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>47700000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7900000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
         <v>-6900000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-54800000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-91700000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-9700000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>11200000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>91700000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>16500000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>38100000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>30800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>-50700000</v>
+        <v>83000000</v>
       </c>
       <c r="C10">
-        <v>-45400000</v>
+        <v>-49800000</v>
       </c>
       <c r="D10">
-        <v>-189200000</v>
+        <v>-50500000</v>
       </c>
       <c r="E10">
-        <v>338100000</v>
+        <v>-202600000</v>
       </c>
       <c r="F10">
-        <v>-209700000</v>
+        <v>386800000</v>
       </c>
       <c r="G10">
+        <v>-221800000</v>
+      </c>
+      <c r="H10">
         <v>-79000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-120800000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-124500000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-33300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>27800000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>40200000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25700000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>40800000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-38800000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-25600000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>201400000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-64400000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-61100000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-132100000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>346900000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-135700000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-53100000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-60200000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>62400000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-45600000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1700000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>12400000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>43100000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-15400000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>10100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>5500000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-16100000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>6600000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-24541000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-8297000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>4517000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>6621000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>705300000</v>
+      </c>
+      <c r="C11">
         <v>576000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>542500000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>350800000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>470600000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>360800000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>387700000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>321000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>441000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>398600000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>368100000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>384300000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>424100000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>412200000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>322400000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>343600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>378200000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>339200000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>265100000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>130200000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>427800000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>198200000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>280400000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>237800000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>348900000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>290900000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>243600000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>194200000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>322300000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>285400000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>234500000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>188300000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>273500000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>224100000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>180600000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>202700000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>211376000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>196918000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>180552000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>180254000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-92500000</v>
+      </c>
+      <c r="C12">
         <v>-119300000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-90100000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-76300000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-84900000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-90100000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-104200000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-77500000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-70100000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-67600000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-66800000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-59600000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-71700000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-71500000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-74200000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-70200000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-101200000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-71800000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-78500000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-54100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-68700000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-54300000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-51100000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-48400000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-51400000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-46600000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-47400000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-38300000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-39300000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-41200000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-43200000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-39700000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-43000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-56000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-50800000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-53700000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-51044000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-39031000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-35742000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-28883000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>-213700000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-74500000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-694400000</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-1345400000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-185600000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-33800000</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>-16500000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-46200000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-135000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-356900000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-399300000</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>-100000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-59300000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-99500000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-22000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-44500000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-152400000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-46600000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-32500000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-86800000</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
       <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>-1185800000</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>-28000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-95700000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-76100000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-50200000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-448500000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-10500000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-9000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-440864000</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>-44237000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>201000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2800000</v>
+      </c>
+      <c r="C14">
         <v>51900000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-71400000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-64500000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-9900000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1300000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>300000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2300000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-200000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-9400000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-14500000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5700000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>100000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-1400000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3100000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-5600000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>9700000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>4700000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-3000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>11300000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3500000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6300000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-5900000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>103900000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>16100000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-132200000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-4800000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-3000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-1700000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>131400000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>226700000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-20500000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>8200000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-5800000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-86900000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>24300000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>88862000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>24678000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-131984000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-35256000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>7500000</v>
+        <v>9100000</v>
       </c>
       <c r="C15">
-        <v>2400000</v>
+        <v>7900000</v>
       </c>
       <c r="D15">
-        <v>-6900000</v>
+        <v>2800000</v>
       </c>
       <c r="E15">
-        <v>708800000</v>
+        <v>-3300000</v>
       </c>
       <c r="F15">
-        <v>-34500000</v>
+        <v>716400000</v>
       </c>
       <c r="G15">
+        <v>1400000</v>
+      </c>
+      <c r="H15">
         <v>-12200000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-2400000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-600000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-18000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-76600000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-8100000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-18300000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-80600000</v>
+      </c>
+      <c r="C16">
         <v>-273200000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-233200000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-144100000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-72800000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-90000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-1461500000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-263200000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-71000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-110800000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-81300000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-70400000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-117800000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-207900000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-428000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-475100000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-91500000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-67200000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-140800000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-142300000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-87200000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-92500000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-209400000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>8900000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-67800000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-265600000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-52200000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-1227100000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-41000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>62200000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>87800000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-136300000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-85000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-510300000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-148200000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-38400000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-403046000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-14353000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-211963000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-63938000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-271100000</v>
+      </c>
+      <c r="C17">
         <v>-45000000</v>
       </c>
-      <c r="C17">
-        <v>-4300000</v>
-      </c>
       <c r="D17">
+        <v>-3900000</v>
+      </c>
+      <c r="E17">
         <v>156200000</v>
       </c>
-      <c r="E17">
-        <v>-426100000</v>
-      </c>
       <c r="F17">
-        <v>37000000</v>
+        <v>-422900000</v>
       </c>
       <c r="G17">
+        <v>43100000</v>
+      </c>
+      <c r="H17">
         <v>203300000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>812300000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-1399900</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-2300000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-1342000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1497100000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-366499900</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>15600000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>399500000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>9700000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>320700000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-180200000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>176200000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-304800000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-19500000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>162700000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>159900000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>225300000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>37400000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>127700000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-32700000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>50800000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-26500000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>93600000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>900000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>85600000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>49099900</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>280600100</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>119800000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>90500000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>257343000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>87016000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>94656000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-17915000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>-99200000</v>
+      </c>
+      <c r="C18">
         <v>-98300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-163700000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-184000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-63100000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-93300000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-85100000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-131700000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-53000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-97900000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>122500000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-227200000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>56800000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-117200000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-182700000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-112500000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-247300000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>37500000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-233300000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-361400000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-12700000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-94300000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-101400000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-225500000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-69800000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-68200000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-6000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-34600000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-34700000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-46400000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-57200000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-46200000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-129600000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-120100000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-84500000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-107400000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-12212000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-100484000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-62286000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-54618000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-119000000</v>
+      </c>
+      <c r="C19">
         <v>-119100000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-119500000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-119800000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-86700000</v>
-      </c>
-      <c r="F19">
-        <v>-86600000</v>
       </c>
       <c r="G19">
         <v>-86600000</v>
       </c>
       <c r="H19">
+        <v>-86600000</v>
+      </c>
+      <c r="I19">
         <v>-86800000</v>
-      </c>
-      <c r="I19">
-        <v>-74600000</v>
       </c>
       <c r="J19">
         <v>-74600000</v>
       </c>
       <c r="K19">
+        <v>-74600000</v>
+      </c>
+      <c r="L19">
         <v>-74000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-74400000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-74000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-68300000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-68500000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-68700000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-69300000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-68900000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-57400000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-58100000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-57900000</v>
-      </c>
-      <c r="V19">
-        <v>-48900000</v>
       </c>
       <c r="W19">
         <v>-48900000</v>
       </c>
       <c r="X19">
+        <v>-48900000</v>
+      </c>
+      <c r="Y19">
         <v>-49300000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-43300000</v>
-      </c>
-      <c r="Z19">
-        <v>-43100000</v>
       </c>
       <c r="AA19">
         <v>-43100000</v>
       </c>
       <c r="AB19">
-        <v>-43200000</v>
+        <v>-43100000</v>
       </c>
       <c r="AC19">
         <v>-43200000</v>
       </c>
       <c r="AD19">
+        <v>-43200000</v>
+      </c>
+      <c r="AE19">
         <v>-38600000</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>-77500000</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
       <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>-70500000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-31400000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-63328000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-16716000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-16756000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>23200000</v>
+        <v>-5500000</v>
       </c>
       <c r="C20">
-        <v>20500000</v>
+        <v>-400000</v>
       </c>
       <c r="D20">
-        <v>16100000</v>
+        <v>-800000</v>
       </c>
       <c r="E20">
-        <v>22300000</v>
+        <v>-3600000</v>
       </c>
       <c r="F20">
-        <v>10700000</v>
+        <v>-10800000</v>
       </c>
       <c r="G20">
+        <v>-44900000</v>
+      </c>
+      <c r="H20">
         <v>2200000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-7600000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-3400000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-18000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-85300000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-8100000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-18300000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-21500000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-21700000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-10100000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-5600000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-11100000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-3200000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-3900000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-2300000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-2500000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-20600000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-4200000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>10200000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>15000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>12200000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-2800000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>6800000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-1400000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>4300000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>400000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2300000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>4600000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>14800000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-4100000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>2028000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-2515000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>6814000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>7473000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-494800000</v>
+      </c>
+      <c r="C21">
         <v>-262800000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-287900000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-151200000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-583500000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-181700000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>33800000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>586200000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-132400000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-192800000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-1378800000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1187400000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-402000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-191400000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>126600000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-181600000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-1500000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-222700000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-117700000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-728200000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-92400000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>17000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-11000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-53700000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-65500000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>31400000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-69600000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-29800000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-97600000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>7200000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-52000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-37700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-78200000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>94600000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>18700000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-21000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>183831000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-32699000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>22428000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-65060000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>54200000</v>
+      </c>
+      <c r="C22">
         <v>-66200000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-53700000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-5100000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3200000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-6400000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9300000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-18400000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>43900000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>37200000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>8000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-20200000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>17600000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-25900000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-8400000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3500000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-4200000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-15400000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-42400000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>21400000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>18700000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>12600000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>14000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>15300000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-34600000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>2900000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-14800000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>12500000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-22100000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-22000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2600000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-13300000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-14400000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-15500000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>5700000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-6800000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5323000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>15841000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-2351000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-7113000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>184100000</v>
+      </c>
+      <c r="C23">
         <v>-26200000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-32300000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>50400000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-182500000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>82700000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-1030700000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>625600000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>281500000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>132200000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-1084000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1481100000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-78100000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-13000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>12600000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-309600000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>281000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>33900000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-35800000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-718900000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>266900000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>135300000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>74000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>208300000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>181000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>59600000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>107000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-1050200000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>161600000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>332800000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>272900000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>95900000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-207100000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>56800000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>136500000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-2516000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>165707000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-11334000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>44143000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2801,11 +2969,11 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>1197100000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -2813,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1702000000</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2825,11 +2993,11 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>891200000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -2837,11 +3005,11 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>1279300000</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -2849,11 +3017,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>1719100000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -2861,11 +3029,11 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>1034600000</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -2873,11 +3041,11 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>1737200000</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
       <c r="AD24">
         <v>0</v>
       </c>
@@ -2885,11 +3053,11 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>968900000</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -2897,991 +3065,1012 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>886800000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-50000</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
       <c r="AM24">
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>690850000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>184100000</v>
+      </c>
+      <c r="C25">
         <v>-26200000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-32300000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1247500000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-182500000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>82700000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-1030700000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2327600000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>281500000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>132200000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-1084000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2372300000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-78100000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-13000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>12600000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>969700000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>281000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>33900000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-35800000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1000200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>266900000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>135300000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>74000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1242900000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>181000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>59600000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>107000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>687000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>161600000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>332800000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>272900000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>969900000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>95900000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-207100000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>56800000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1023300000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-2566000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>165707000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-11334000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>734993000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>25300000</v>
+      </c>
+      <c r="C26">
         <v>23600000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>20900000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>19700000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>22800000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>21200000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>19900000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>19100000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>19500000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>19000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>16600000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15400000</v>
-      </c>
-      <c r="M26">
-        <v>16600000</v>
       </c>
       <c r="N26">
         <v>16600000</v>
       </c>
       <c r="O26">
+        <v>16600000</v>
+      </c>
+      <c r="P26">
         <v>15400000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>14400000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>15200000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14400000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>13300000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>12700000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>12600000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>12700000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>12300000</v>
-      </c>
-      <c r="X26">
-        <v>12100000</v>
       </c>
       <c r="Y26">
         <v>12100000</v>
       </c>
       <c r="Z26">
+        <v>12100000</v>
+      </c>
+      <c r="AA26">
         <v>12300000</v>
-      </c>
-      <c r="AA26">
-        <v>11600000</v>
       </c>
       <c r="AB26">
         <v>11600000</v>
       </c>
       <c r="AC26">
+        <v>11600000</v>
+      </c>
+      <c r="AD26">
         <v>12100000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>11900000</v>
-      </c>
-      <c r="AE26">
-        <v>10100000</v>
       </c>
       <c r="AF26">
         <v>10100000</v>
       </c>
       <c r="AG26">
+        <v>10100000</v>
+      </c>
+      <c r="AH26">
         <v>12000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>10200000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>9900000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>9300000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>9516000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>9409000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>8892000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>8283000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-119000000</v>
+      </c>
+      <c r="C27">
         <v>-119100000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-119500000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-119800000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-86700000</v>
-      </c>
-      <c r="F27">
-        <v>-86600000</v>
       </c>
       <c r="G27">
         <v>-86600000</v>
       </c>
       <c r="H27">
+        <v>-86600000</v>
+      </c>
+      <c r="I27">
         <v>-86800000</v>
-      </c>
-      <c r="I27">
-        <v>-74600000</v>
       </c>
       <c r="J27">
         <v>-74600000</v>
       </c>
       <c r="K27">
+        <v>-74600000</v>
+      </c>
+      <c r="L27">
         <v>-74000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-74400000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-74000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-68300000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-68500000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-68700000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-69300000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-68900000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-57400000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-58100000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-57900000</v>
-      </c>
-      <c r="V27">
-        <v>-48900000</v>
       </c>
       <c r="W27">
         <v>-48900000</v>
       </c>
       <c r="X27">
+        <v>-48900000</v>
+      </c>
+      <c r="Y27">
         <v>-49300000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-43300000</v>
-      </c>
-      <c r="Z27">
-        <v>-43100000</v>
       </c>
       <c r="AA27">
         <v>-43100000</v>
       </c>
       <c r="AB27">
-        <v>-43200000</v>
+        <v>-43100000</v>
       </c>
       <c r="AC27">
         <v>-43200000</v>
       </c>
       <c r="AD27">
+        <v>-43200000</v>
+      </c>
+      <c r="AE27">
         <v>-38600000</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
       <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>-77500000</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
       <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>-70500000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-31400000</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
         <v>-63328000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-16716000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-16756000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>0.0878</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.0919</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.0806</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.06809999999999999</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.0902</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.0977</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.0576</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.0546</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.07290000000000001</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.0863</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.125</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.0838</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.1035</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.102</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.0882</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.0934</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.0789</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.09329999999999999</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.0868</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.06660000000000001</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0801</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0902</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.0897</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.08840000000000001</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.0975</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.1137</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.121</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.06519999999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.0798</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.0761</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.077</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.07870000000000001</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.0882</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.0594</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.064</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.0663</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.0477</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.051</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.0567</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>83000000</v>
+      </c>
+      <c r="C29">
         <v>-49800000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-50500000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-202600000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-83600000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-221800000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-79000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-120800000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-65400000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-33300000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>27800000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>40200000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-42700000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>40800000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-38800000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-25600000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-112900100</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-62500000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-61000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-211100000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>270400000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-146000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-43500000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-60200000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>86200000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-45600000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1700000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>12400000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>51000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-15400000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>10100000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-5000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-16100000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>6600000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-24041000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-8297000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>4517000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>6621000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2800000</v>
+      </c>
+      <c r="C30">
         <v>51900000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-71400000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-64500000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-9900000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1300000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>300000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2300000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-200000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-9400000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-14500000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5700000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>100000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-1400000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3100000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-5600000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9700000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4700000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-3000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>11300000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3500000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>6300000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-5900000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>103900000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>16100000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-132200000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-4800000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-3000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-1700000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>131400000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>226700000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-20500000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8200000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-5800000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-86900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>24300000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>88862000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>24678000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-131984000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-35256000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-99200000</v>
+      </c>
+      <c r="C31">
         <v>-98300000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-163700000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-184000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-63100000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-93300000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-85100000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-131700000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-53000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-97900000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>122500000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-227200000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>56800000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-117200000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-182700000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-112500000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-247300000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>37500000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-233300000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-361400000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-12700000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-94300000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-101400000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-225500000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-69800000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-68200000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-6000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-34600000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-34700000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-46400000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-57200000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-46200000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-129600000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-120100000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-84500000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-107400000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-12212000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-100484000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-62286000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-54618000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-98300000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-163700000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-184000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-63100000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-93300000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-85100000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-131700000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-53000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-97900000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>122500000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-227200000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>56800000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-117200000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-182700000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-112500000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-247300000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>37500000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-233300000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-361400000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-12700000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-94300000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-101400000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-225500000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-69800000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-68200000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-6000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-34600000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-34700000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-46400000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-57200000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-46200000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-129600000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-120100000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-84500000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-107400000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-12212000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-100484000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-62286000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-54618000</v>
       </c>
     </row>
